--- a/bin/Debug/example.xlsx
+++ b/bin/Debug/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Projects\WBParserAPI\WBParserAPI\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E647B626-078A-4FFB-9865-E408B2A192F0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E928B8D0-247F-464A-B7DE-1FB30F900917}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="241">
   <si>
     <t>Title</t>
   </si>
@@ -38,18 +38,72 @@
     <t>Price</t>
   </si>
   <si>
+    <t>Магнитный конструктор детский игрушка для мальчиков девочек</t>
+  </si>
+  <si>
+    <t>АртеЛогика</t>
+  </si>
+  <si>
+    <t>AUKKA</t>
+  </si>
+  <si>
+    <t>Настольные игры Что за мем мемограм настолка для компании</t>
+  </si>
+  <si>
+    <t>MemeClub</t>
+  </si>
+  <si>
+    <t>PLAY LAND</t>
+  </si>
+  <si>
+    <t>Умные игры</t>
+  </si>
+  <si>
+    <t>Clever Choice (99 задач)</t>
+  </si>
+  <si>
+    <t>Lonpos</t>
+  </si>
+  <si>
+    <t>Десятое королевство</t>
+  </si>
+  <si>
+    <t>Настольные игры Что за мем мемограм Какой ты мем настолка</t>
+  </si>
+  <si>
+    <t>What Do You Meme?</t>
+  </si>
+  <si>
+    <t>Feedbacks</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>POCO</t>
+  </si>
+  <si>
+    <t>Infinix</t>
+  </si>
+  <si>
+    <t>Смартфон X4 Pro 5G 8GB+256GB</t>
+  </si>
+  <si>
+    <t>Xiaomi</t>
+  </si>
+  <si>
+    <t>Смартфон Redmi Note 10T 6.5" 1080x2400 MediaTek Dimensity 70…</t>
+  </si>
+  <si>
+    <t>Смартфон M4 Pro 8GB+256GB</t>
+  </si>
+  <si>
     <t>Бизиборд домик со светом бизидом игрушки</t>
   </si>
   <si>
     <t>KimToys</t>
   </si>
   <si>
-    <t>Магнитный конструктор детский игрушка для мальчиков девочек</t>
-  </si>
-  <si>
-    <t>АртеЛогика</t>
-  </si>
-  <si>
     <t>Развивающий коврик для новорожденных "Play Ground Gym"</t>
   </si>
   <si>
@@ -131,9 +185,6 @@
     <t>Сортер Магнитная рыбалка Развивающая игра для малышей Игрушк…</t>
   </si>
   <si>
-    <t>AUKKA</t>
-  </si>
-  <si>
     <t>Развивающий игровой коврик с пианино</t>
   </si>
   <si>
@@ -164,36 +215,30 @@
     <t>Бизиборд Бизидом со светом Смайлик</t>
   </si>
   <si>
+    <t>Музыкальная мобиль на кроватку</t>
+  </si>
+  <si>
+    <t>Жирафики</t>
+  </si>
+  <si>
+    <t>Конструктор мешок для мальчиков девочек малышей детский боль…</t>
+  </si>
+  <si>
+    <t>Полесье</t>
+  </si>
+  <si>
+    <t>Развивающий деревянный сортер для малышей</t>
+  </si>
+  <si>
+    <t>Каталка детская толокар с рулем Мила Панда Мишка Лева</t>
+  </si>
+  <si>
     <t>Бизиборд, бизидомик развивающий</t>
   </si>
   <si>
     <t>Wooden</t>
   </si>
   <si>
-    <t>Конструктор мешок для мальчиков девочек малышей детский боль…</t>
-  </si>
-  <si>
-    <t>Полесье</t>
-  </si>
-  <si>
-    <t>Развивающий деревянный сортер для малышей</t>
-  </si>
-  <si>
-    <t>Каталка детская толокар с рулем Мила Панда Мишка Лева</t>
-  </si>
-  <si>
-    <t>Музыкальная мобиль на кроватку</t>
-  </si>
-  <si>
-    <t>Жирафики</t>
-  </si>
-  <si>
-    <t>Настольные игры Что за мем мемограм настолка для компании</t>
-  </si>
-  <si>
-    <t>MemeClub</t>
-  </si>
-  <si>
     <t>Монополия Гарри Поттер настольная игра</t>
   </si>
   <si>
@@ -266,9 +311,6 @@
     <t>New Format</t>
   </si>
   <si>
-    <t>PLAY LAND</t>
-  </si>
-  <si>
     <t>Ерундопель русского языка</t>
   </si>
   <si>
@@ -308,9 +350,6 @@
     <t>Настольная игра Элементарно! Выстрелы на рассвете</t>
   </si>
   <si>
-    <t>Умные игры</t>
-  </si>
-  <si>
     <t>Настольная игра-ходилка "Буба. Правила дорожного движения"</t>
   </si>
   <si>
@@ -320,21 +359,21 @@
     <t>Шахматы</t>
   </si>
   <si>
+    <t>Настольная игра карточная Похер прикол подарок другу коллеге…</t>
+  </si>
+  <si>
+    <t>Бюро находок</t>
+  </si>
+  <si>
+    <t>Настольная игра-ходилка "В. Сутеев. Мешок яблок"</t>
+  </si>
+  <si>
     <t>Игра для детей Найди Монстрика Динозавра</t>
   </si>
   <si>
     <t>DREAM MAKERS</t>
   </si>
   <si>
-    <t>Настольная игра карточная Похер прикол подарок другу коллеге…</t>
-  </si>
-  <si>
-    <t>Бюро находок</t>
-  </si>
-  <si>
-    <t>Настольная игра-ходилка "В. Сутеев. Мешок яблок"</t>
-  </si>
-  <si>
     <t>Игра для пар, игра для взрослых постельный, секс игра для па…</t>
   </si>
   <si>
@@ -380,12 +419,6 @@
     <t>Bicycle</t>
   </si>
   <si>
-    <t>Clever Choice (99 задач)</t>
-  </si>
-  <si>
-    <t>Lonpos</t>
-  </si>
-  <si>
     <t>Настольная игра Домино</t>
   </si>
   <si>
@@ -407,9 +440,6 @@
     <t>Почемуметр. Игра ума</t>
   </si>
   <si>
-    <t>Десятое королевство</t>
-  </si>
-  <si>
     <t>Настольная игра "Имаджинариум"</t>
   </si>
   <si>
@@ -419,12 +449,6 @@
     <t>Задира</t>
   </si>
   <si>
-    <t>Настольные игры Что за мем мемограм Какой ты мем настолка</t>
-  </si>
-  <si>
-    <t>What Do You Meme?</t>
-  </si>
-  <si>
     <t>Настольная игра</t>
   </si>
   <si>
@@ -467,12 +491,12 @@
     <t>ЛАС ИГРАС</t>
   </si>
   <si>
+    <t>Настольная игра "Новогодняя показуха"</t>
+  </si>
+  <si>
     <t>Настольная игра "Новогодние тарантинки"</t>
   </si>
   <si>
-    <t>Настольная игра "Новогодняя показуха"</t>
-  </si>
-  <si>
     <t>Настольная карточная игра "Блиц! День"</t>
   </si>
   <si>
@@ -518,13 +542,19 @@
     <t>In Mother's Hands</t>
   </si>
   <si>
+    <t>Игры на везение</t>
+  </si>
+  <si>
+    <t>Уютерра-Детский мир</t>
+  </si>
+  <si>
     <t>Смартфон А55 4+128 Гб</t>
   </si>
   <si>
     <t>OPPO</t>
   </si>
   <si>
-    <t>Xiaomi</t>
+    <t>Смартфон Redmi Note 10 Pro 6,67'' 2400х1800 IPS Snapdragon 7…</t>
   </si>
   <si>
     <t>Смартфон V25e 8GB 128GB</t>
@@ -533,55 +563,193 @@
     <t>VIVO</t>
   </si>
   <si>
+    <t>iPhone 11 128GB (СНГ)</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
     <t>Смартфон С35 4 128Gb 6.6 2408x1080 FHD+ 5000 mAh</t>
   </si>
   <si>
     <t>Realme</t>
   </si>
   <si>
-    <t>Infinix</t>
+    <t>Смартфон HOT 11 Exploratory blue</t>
+  </si>
+  <si>
+    <t>Смартфон С30 2 32b 6.5 1600x720HD+ 5000m</t>
+  </si>
+  <si>
+    <t>C40 3 GB+32 GB</t>
+  </si>
+  <si>
+    <t>Смартфон Y35 4GB 64GB</t>
+  </si>
+  <si>
+    <t>NOTE 12 PRO 8+256GB</t>
   </si>
   <si>
     <t>Смартфон Redmi 9A 2GB+32GB</t>
   </si>
   <si>
+    <t>iPhone 11 64GB (СНГ)</t>
+  </si>
+  <si>
+    <t>Смартфон С30 4 64b 6.5" 1600x720 HD + 5000 mAh</t>
+  </si>
+  <si>
+    <t>Galaxy A23 128GB</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Смартфон Redmi Note 11 4 GB 128 GB 6.43" 1080 x 2400 50 МП+…</t>
+  </si>
+  <si>
     <t>Смартфон 9 5G 4 128Gb 6.4" 120 герц</t>
   </si>
   <si>
     <t>Смартфон NOTE 12 VIP 8+256GB</t>
   </si>
   <si>
+    <t>iPhone 13 Pro Max 256GB (СНГ)</t>
+  </si>
+  <si>
+    <t>C40 4 GB+64 GB</t>
+  </si>
+  <si>
+    <t>Смартфон С30 2 32b 6.5" 1600x720 HD + 5000 mAh</t>
+  </si>
+  <si>
+    <t>Смартфон HOT 11S NFC 64GB</t>
+  </si>
+  <si>
+    <t>Смартфон NOTE 10 Pro 128GB</t>
+  </si>
+  <si>
+    <t>Смартфон X4 Pro 5G 6GB+128GB</t>
+  </si>
+  <si>
+    <t>Смартфон Redmi 9C 3GB+64GB</t>
+  </si>
+  <si>
     <t>Смартфон С35 4 64Gb 6.6 2408x1080 FHD+ 5000mAh</t>
   </si>
   <si>
+    <t>SMART 6 PLUS 2+64GB</t>
+  </si>
+  <si>
+    <t>Смартфон Redmi Note 10S 128Gb 6.43" 2400x1080 MediaTek Helio…</t>
+  </si>
+  <si>
+    <t>Смартфон 11 Lite 5G NE 6.55" 2400x1080 AMOLED Snapdragon 778…</t>
+  </si>
+  <si>
     <t>Смартфон С31 4 64Gb 6.5 HD+ NFC 5000mA</t>
   </si>
   <si>
+    <t>Redmi Note 10s 6+128GB NFC Gray RUS</t>
+  </si>
+  <si>
+    <t>iPhone 13 Pro Max 128GB (Европа)</t>
+  </si>
+  <si>
+    <t>X4 GT 8 GB+256 GB</t>
+  </si>
+  <si>
+    <t>Смартфон HOT 12 Play 4+64GB</t>
+  </si>
+  <si>
+    <t>Смартфон 11T 6.67" 1080x2400 8 GB 256 GB 108+8+5 16Mpix 5000…</t>
+  </si>
+  <si>
+    <t>iPhone 13 256GB (СНГ)</t>
+  </si>
+  <si>
+    <t>Смартфон 11T RU 8+128 Celestial Blue</t>
+  </si>
+  <si>
     <t>Смартфон C25S 4 128GB 6.5 ", 1600х720 IPS 4 128GB 48 + 2 + 2…</t>
   </si>
   <si>
+    <t>Смартфон Redmi 10C 4 GB 128 GB 6.71" 1650x720 50 МП+2 МП 5Mp…</t>
+  </si>
+  <si>
+    <t>iPhone 14 Pro 256GB (СНГ)</t>
+  </si>
+  <si>
     <t>Смартфон G21 6.5 1600x720 6+128ГБ</t>
   </si>
   <si>
     <t>Nokia</t>
   </si>
   <si>
+    <t>Смартфон F4 GT 12 GB+256 GB</t>
+  </si>
+  <si>
+    <t>Смартфон 11T RU 8+128 Moonlight White</t>
+  </si>
+  <si>
     <t>Смартфон V25 5G 8GB 256GB</t>
   </si>
   <si>
+    <t>Смартфон 11T RU 8+256 Meteorite Gray</t>
+  </si>
+  <si>
+    <t>Galaxy A53 5G 256GB</t>
+  </si>
+  <si>
+    <t>Смартфон C40 3GB+32GB</t>
+  </si>
+  <si>
+    <t>iPhone 13 pro 128GB (СНГ)</t>
+  </si>
+  <si>
+    <t>Смартфон 11T RU 8+256 Celestial Blue</t>
+  </si>
+  <si>
+    <t>Смартфон M5 4GB+128GB</t>
+  </si>
+  <si>
+    <t>Смартфон С11 2021 4 64Gb 6.5" 1600x720 LCD 4Gb 64Gb 5000 mAh</t>
+  </si>
+  <si>
+    <t>Смартфон Redmi 10 2022 4GB 128GB 6.5" 1080x2400 50 МП+8 МП+2…</t>
+  </si>
+  <si>
+    <t>Смартфон 11T 6.67" 1080x2400 8 GB 128 GB 108+8+5 16Mpix 5000…</t>
+  </si>
+  <si>
     <t>Смартфон Y35 4GB 128GB</t>
   </si>
   <si>
-    <t>Feedbacks</t>
-  </si>
-  <si>
-    <t>Мобиль детский в кроватку, для новорожденных, музыкальный</t>
-  </si>
-  <si>
-    <t>Stonehenge Kids</t>
-  </si>
-  <si>
-    <t>Id</t>
+    <t>Смартфон 9 4G 6 128Gb 6.4" FHD+</t>
+  </si>
+  <si>
+    <t>Redmi Note 10T RU 4+128 Aurora Green</t>
+  </si>
+  <si>
+    <t>Смартфон 11 Lite 5G NE RU 8+128 Mint Green</t>
+  </si>
+  <si>
+    <t>Смартфон M5s 4 GB 128 GB</t>
+  </si>
+  <si>
+    <t>Смартфон 11T RU 8+128 Meteorite Gray</t>
+  </si>
+  <si>
+    <t>iPhone 13 Pro Max 512GB (СНГ)</t>
+  </si>
+  <si>
+    <t>Смартфон F4 8GB+256GB</t>
+  </si>
+  <si>
+    <t>Galaxy A23 64GB</t>
+  </si>
+  <si>
+    <t>Смартфон M5s 4 GB 64 GB</t>
   </si>
 </sst>
 </file>
@@ -900,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -921,10 +1089,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -932,10 +1100,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>10998667</v>
@@ -949,16 +1117,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>35256852</v>
       </c>
       <c r="D3">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E3">
         <v>17075</v>
@@ -966,16 +1134,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>12707555</v>
       </c>
       <c r="D4">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="E4">
         <v>17754</v>
@@ -983,10 +1151,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>35534539</v>
@@ -1000,10 +1168,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>36005299</v>
@@ -1017,16 +1185,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C7">
         <v>48517076</v>
       </c>
       <c r="D7">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E7">
         <v>36119</v>
@@ -1034,10 +1202,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>43232294</v>
@@ -1051,10 +1219,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C9">
         <v>18759139</v>
@@ -1068,10 +1236,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>33670186</v>
@@ -1085,10 +1253,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>70050918</v>
@@ -1102,10 +1270,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>19911636</v>
@@ -1119,359 +1287,308 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="C13">
-        <v>70413077</v>
+        <v>18612795</v>
       </c>
       <c r="D13">
-        <v>1005</v>
+        <v>2703</v>
       </c>
       <c r="E13">
-        <v>16489</v>
+        <v>4018</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C14">
-        <v>18612795</v>
+        <v>9862999</v>
       </c>
       <c r="D14">
-        <v>2702</v>
+        <v>10673</v>
       </c>
       <c r="E14">
-        <v>4018</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C15">
-        <v>9862999</v>
+        <v>30497938</v>
       </c>
       <c r="D15">
-        <v>10671</v>
+        <v>489</v>
       </c>
       <c r="E15">
-        <v>1571</v>
+        <v>29329</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C16">
-        <v>30497938</v>
+        <v>54740091</v>
       </c>
       <c r="D16">
-        <v>489</v>
+        <v>213</v>
       </c>
       <c r="E16">
-        <v>29329</v>
+        <v>21330</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>54740091</v>
+        <v>25386869</v>
       </c>
       <c r="D17">
-        <v>212</v>
+        <v>2464</v>
       </c>
       <c r="E17">
-        <v>21330</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C18">
-        <v>25386869</v>
+        <v>13538769</v>
       </c>
       <c r="D18">
-        <v>2464</v>
+        <v>2637</v>
       </c>
       <c r="E18">
-        <v>5785</v>
+        <v>12013</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C19">
-        <v>13538769</v>
+        <v>10640321</v>
       </c>
       <c r="D19">
-        <v>2636</v>
+        <v>254</v>
       </c>
       <c r="E19">
-        <v>12013</v>
+        <v>11342</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C20">
-        <v>10640321</v>
+        <v>58452308</v>
       </c>
       <c r="D20">
-        <v>253</v>
+        <v>1245</v>
       </c>
       <c r="E20">
-        <v>11342</v>
+        <v>46203</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C21">
-        <v>58452308</v>
+        <v>10640318</v>
       </c>
       <c r="D21">
-        <v>1244</v>
+        <v>229</v>
       </c>
       <c r="E21">
-        <v>46203</v>
+        <v>10398</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C22">
-        <v>10640318</v>
+        <v>57944566</v>
       </c>
       <c r="D22">
-        <v>229</v>
+        <v>1465</v>
       </c>
       <c r="E22">
-        <v>10398</v>
+        <v>5496</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C23">
-        <v>57944566</v>
+        <v>78237462</v>
       </c>
       <c r="D23">
-        <v>1464</v>
+        <v>193</v>
       </c>
       <c r="E23">
-        <v>5496</v>
+        <v>16794</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C24">
-        <v>78237462</v>
+        <v>3595159</v>
       </c>
       <c r="D24">
-        <v>193</v>
+        <v>3796</v>
       </c>
       <c r="E24">
-        <v>16794</v>
+        <v>11358</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>183</v>
+        <v>65</v>
       </c>
       <c r="C25">
-        <v>70412209</v>
+        <v>40894672</v>
       </c>
       <c r="D25">
-        <v>1005</v>
+        <v>566</v>
       </c>
       <c r="E25">
-        <v>17007</v>
+        <v>6456</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C26">
-        <v>3595159</v>
+        <v>27207265</v>
       </c>
       <c r="D26">
-        <v>3796</v>
+        <v>1225</v>
       </c>
       <c r="E26">
-        <v>11358</v>
+        <v>10522</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C27">
-        <v>40894672</v>
+        <v>40901593</v>
       </c>
       <c r="D27">
-        <v>565</v>
+        <v>1112</v>
       </c>
       <c r="E27">
-        <v>6456</v>
+        <v>17099</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="C28">
-        <v>27207265</v>
+        <v>111731885</v>
       </c>
       <c r="D28">
-        <v>1223</v>
+        <v>261</v>
       </c>
       <c r="E28">
-        <v>10522</v>
+        <v>39976</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C29">
-        <v>40901593</v>
+        <v>25386945</v>
       </c>
       <c r="D29">
-        <v>1112</v>
+        <v>2464</v>
       </c>
       <c r="E29">
-        <v>17099</v>
+        <v>5621</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C30">
-        <v>111731885</v>
+        <v>25903809</v>
       </c>
       <c r="D30">
-        <v>261</v>
+        <v>381</v>
       </c>
       <c r="E30">
-        <v>39976</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31">
-        <v>25386945</v>
-      </c>
-      <c r="D31">
-        <v>2464</v>
-      </c>
-      <c r="E31">
-        <v>5621</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32">
-        <v>25903809</v>
-      </c>
-      <c r="D32">
-        <v>381</v>
-      </c>
-      <c r="E32">
         <v>28526</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33">
-        <v>33670188</v>
-      </c>
-      <c r="D33">
-        <v>355</v>
-      </c>
-      <c r="E33">
-        <v>60229</v>
       </c>
     </row>
   </sheetData>
@@ -1482,7 +1599,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{849820AE-17E7-484E-985A-B7DF158FED51}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -1504,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1515,10 +1632,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C2">
         <v>120977244</v>
@@ -1532,10 +1649,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="C3">
         <v>66372072</v>
@@ -1549,10 +1666,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>34675965</v>
@@ -1566,10 +1683,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C5">
         <v>17356605</v>
@@ -1583,10 +1700,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C6">
         <v>34678852</v>
@@ -1600,10 +1717,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>81483840</v>
@@ -1617,10 +1734,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="C8">
         <v>54390748</v>
@@ -1634,10 +1751,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>86954664</v>
@@ -1651,10 +1768,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C10">
         <v>4966545</v>
@@ -1668,10 +1785,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="C11">
         <v>12412898</v>
@@ -1685,10 +1802,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="C12">
         <v>64721726</v>
@@ -1702,10 +1819,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="C13">
         <v>20873873</v>
@@ -1719,10 +1836,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>96364814</v>
@@ -1736,10 +1853,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C15">
         <v>5572674</v>
@@ -1753,16 +1870,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>8210228</v>
       </c>
       <c r="D16">
-        <v>8991</v>
+        <v>8994</v>
       </c>
       <c r="E16">
         <v>3982</v>
@@ -1770,10 +1887,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="C17">
         <v>3235894</v>
@@ -1787,10 +1904,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C18">
         <v>91028320</v>
@@ -1804,10 +1921,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="C19">
         <v>56334321</v>
@@ -1821,10 +1938,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="C20">
         <v>7531393</v>
@@ -1838,10 +1955,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="C21">
         <v>35891112</v>
@@ -1855,10 +1972,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C22">
         <v>12550619</v>
@@ -1872,10 +1989,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>40918772</v>
@@ -1889,10 +2006,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="C24">
         <v>27897296</v>
@@ -1906,61 +2023,61 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="C25">
-        <v>3716221</v>
+        <v>37879586</v>
       </c>
       <c r="D25">
-        <v>1100</v>
+        <v>520</v>
       </c>
       <c r="E25">
-        <v>4291</v>
+        <v>4749</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="C26">
-        <v>37879586</v>
+        <v>77205402</v>
       </c>
       <c r="D26">
-        <v>520</v>
+        <v>34</v>
       </c>
       <c r="E26">
-        <v>4749</v>
+        <v>719</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C27">
-        <v>77205402</v>
+        <v>3716221</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>1100</v>
       </c>
       <c r="E27">
-        <v>719</v>
+        <v>4291</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="C28">
         <v>58986639</v>
@@ -1974,10 +2091,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C29">
         <v>6141503</v>
@@ -1991,10 +2108,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C30">
         <v>53900351</v>
@@ -2008,10 +2125,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C31">
         <v>66664281</v>
@@ -2025,231 +2142,231 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="C32">
-        <v>108925548</v>
+        <v>125116442</v>
       </c>
       <c r="D32">
-        <v>980</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>12869</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C33">
-        <v>125116442</v>
+        <v>125116491</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33">
-        <v>2005</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C34">
-        <v>125116491</v>
+        <v>125116459</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34">
-        <v>2507</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C35">
-        <v>125116459</v>
+        <v>125116495</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35">
-        <v>3511</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B36" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="C36">
-        <v>125116495</v>
+        <v>111774213</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36">
-        <v>2507</v>
+        <v>10004</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C37">
-        <v>111774213</v>
+        <v>125393390</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E37">
-        <v>10004</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="C38">
-        <v>125393390</v>
+        <v>103516942</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>1201</v>
+        <v>755</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C39">
-        <v>103516942</v>
+        <v>109643533</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>755</v>
+        <v>12865</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C40">
-        <v>109643533</v>
+        <v>5572676</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="E40">
-        <v>12865</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="C41">
-        <v>5572676</v>
+        <v>103516359</v>
       </c>
       <c r="D41">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>1928</v>
+        <v>824</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="B42" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="C42">
-        <v>103516359</v>
+        <v>2737172</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E42">
-        <v>824</v>
+        <v>9996</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="C43">
-        <v>2737172</v>
+        <v>122421676</v>
       </c>
       <c r="D43">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>9996</v>
+        <v>20084</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="C44">
-        <v>122421676</v>
+        <v>108925548</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>980</v>
       </c>
       <c r="E44">
-        <v>20084</v>
+        <v>12869</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C45">
         <v>122459861</v>
@@ -2263,16 +2380,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="C46">
         <v>117516387</v>
       </c>
       <c r="D46">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E46">
         <v>12857</v>
@@ -2280,10 +2397,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C47">
         <v>68364573</v>
@@ -2297,10 +2414,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C48">
         <v>124016371</v>
@@ -2314,10 +2431,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="C49">
         <v>124132589</v>
@@ -2331,10 +2448,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="C50">
         <v>74797100</v>
@@ -2348,10 +2465,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="C51">
         <v>29748524</v>
@@ -2365,10 +2482,10 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C52">
         <v>125276103</v>
@@ -2382,10 +2499,10 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C53">
         <v>123381659</v>
@@ -2399,10 +2516,10 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="C54">
         <v>125276090</v>
@@ -2416,10 +2533,10 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B55" t="s">
-        <v>126</v>
+        <v>12</v>
       </c>
       <c r="C55">
         <v>125276156</v>
@@ -2433,10 +2550,10 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C56">
         <v>125276123</v>
@@ -2450,10 +2567,10 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B57" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C57">
         <v>39739491</v>
@@ -2467,10 +2584,10 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="C58">
         <v>29663013</v>
@@ -2484,10 +2601,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="C59">
         <v>38177047</v>
@@ -2501,10 +2618,10 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C60">
         <v>105815426</v>
@@ -2518,10 +2635,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B61" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C61">
         <v>94461225</v>
@@ -2535,10 +2652,10 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C62">
         <v>6811362</v>
@@ -2552,10 +2669,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="C63">
         <v>12142315</v>
@@ -2569,10 +2686,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C64">
         <v>115911767</v>
@@ -2586,10 +2703,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="C65">
         <v>125987084</v>
@@ -2599,6 +2716,23 @@
       </c>
       <c r="E65">
         <v>8035</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>171</v>
+      </c>
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66">
+        <v>130546583</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>19124</v>
       </c>
     </row>
   </sheetData>
@@ -2609,7 +2743,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E727AC-6254-41D9-9C55-365BFA993C4A}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
@@ -2629,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -2640,16 +2774,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C2">
         <v>46289641</v>
       </c>
       <c r="D2">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="E2">
         <v>79510</v>
@@ -2657,237 +2791,237 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>46289640</v>
+        <v>28980742</v>
       </c>
       <c r="D3">
-        <v>669</v>
+        <v>579</v>
       </c>
       <c r="E3">
-        <v>79510</v>
+        <v>116473</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C4">
-        <v>121026731</v>
+        <v>46289640</v>
       </c>
       <c r="D4">
-        <v>280</v>
+        <v>672</v>
       </c>
       <c r="E4">
-        <v>112491</v>
+        <v>79510</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C5">
-        <v>111864727</v>
+        <v>121026731</v>
       </c>
       <c r="D5">
-        <v>805</v>
+        <v>283</v>
       </c>
       <c r="E5">
-        <v>80313</v>
+        <v>112491</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C6">
-        <v>121026730</v>
+        <v>86123929</v>
       </c>
       <c r="D6">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="E6">
-        <v>112491</v>
+        <v>200844</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C7">
-        <v>13615125</v>
+        <v>111864727</v>
       </c>
       <c r="D7">
-        <v>6996</v>
+        <v>805</v>
       </c>
       <c r="E7">
-        <v>36119</v>
+        <v>80313</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C8">
-        <v>121028588</v>
+        <v>121026730</v>
       </c>
       <c r="D8">
-        <v>205</v>
+        <v>283</v>
       </c>
       <c r="E8">
-        <v>88349</v>
+        <v>112491</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>121002311</v>
+        <v>67866095</v>
       </c>
       <c r="D9">
-        <v>119</v>
+        <v>1050</v>
       </c>
       <c r="E9">
-        <v>132543</v>
+        <v>204862</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="C10">
-        <v>121028587</v>
+        <v>105825180</v>
       </c>
       <c r="D10">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="E10">
-        <v>88349</v>
+        <v>60261</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C11">
-        <v>111864106</v>
+        <v>114555640</v>
       </c>
       <c r="D11">
-        <v>499</v>
+        <v>409</v>
       </c>
       <c r="E11">
-        <v>72278</v>
+        <v>40137</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>115119681</v>
+        <v>114714657</v>
       </c>
       <c r="D12">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="E12">
-        <v>56207</v>
+        <v>48172</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>111864107</v>
+        <v>67866097</v>
       </c>
       <c r="D13">
-        <v>499</v>
+        <v>1050</v>
       </c>
       <c r="E13">
-        <v>72278</v>
+        <v>204862</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C14">
-        <v>39769256</v>
+        <v>118174485</v>
       </c>
       <c r="D14">
-        <v>1541</v>
+        <v>170</v>
       </c>
       <c r="E14">
-        <v>80313</v>
+        <v>72278</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>105847516</v>
+        <v>117964070</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>378</v>
       </c>
       <c r="E15">
-        <v>68260</v>
+        <v>100402</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B16" t="s">
-        <v>165</v>
+        <v>20</v>
       </c>
       <c r="C16">
-        <v>84018137</v>
+        <v>13615125</v>
       </c>
       <c r="D16">
-        <v>6996</v>
+        <v>6997</v>
       </c>
       <c r="E16">
         <v>36119</v>
@@ -2895,36 +3029,1243 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="C17">
-        <v>121010316</v>
+        <v>86123932</v>
       </c>
       <c r="D17">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="E17">
-        <v>80350</v>
+        <v>184773</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18">
+        <v>114577367</v>
+      </c>
+      <c r="D18">
+        <v>150</v>
+      </c>
+      <c r="E18">
+        <v>48172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19">
+        <v>111864728</v>
+      </c>
+      <c r="D19">
+        <v>805</v>
+      </c>
+      <c r="E19">
+        <v>80313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20">
+        <v>84888164</v>
+      </c>
+      <c r="D20">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>96384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>72295496</v>
+      </c>
+      <c r="D21">
+        <v>486</v>
+      </c>
+      <c r="E21">
+        <v>112455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+      <c r="B22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22">
+        <v>121028588</v>
+      </c>
+      <c r="D22">
+        <v>205</v>
+      </c>
+      <c r="E22">
+        <v>88349</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>121002311</v>
+      </c>
+      <c r="D23">
+        <v>120</v>
+      </c>
+      <c r="E23">
+        <v>132543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B24" t="s">
         <v>179</v>
       </c>
-      <c r="B18" t="s">
-        <v>167</v>
-      </c>
-      <c r="C18">
+      <c r="C24">
+        <v>113244899</v>
+      </c>
+      <c r="D24">
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <v>522258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>114316934</v>
+      </c>
+      <c r="D25">
+        <v>285</v>
+      </c>
+      <c r="E25">
+        <v>52190</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>72295495</v>
+      </c>
+      <c r="D26">
+        <v>486</v>
+      </c>
+      <c r="E26">
+        <v>112455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27">
+        <v>118174486</v>
+      </c>
+      <c r="D27">
+        <v>170</v>
+      </c>
+      <c r="E27">
+        <v>72278</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>114714658</v>
+      </c>
+      <c r="D28">
+        <v>142</v>
+      </c>
+      <c r="E28">
+        <v>48172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29">
+        <v>84888157</v>
+      </c>
+      <c r="D29">
+        <v>57</v>
+      </c>
+      <c r="E29">
+        <v>96384</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>197</v>
+      </c>
+      <c r="B30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30">
+        <v>114564576</v>
+      </c>
+      <c r="D30">
+        <v>154</v>
+      </c>
+      <c r="E30">
+        <v>40137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>45338058</v>
+      </c>
+      <c r="D31">
+        <v>393</v>
+      </c>
+      <c r="E31">
+        <v>60225</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>199</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>38435328</v>
+      </c>
+      <c r="D32">
+        <v>1186</v>
+      </c>
+      <c r="E32">
+        <v>88349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33">
+        <v>67865980</v>
+      </c>
+      <c r="D33">
+        <v>211</v>
+      </c>
+      <c r="E33">
+        <v>184773</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>193</v>
+      </c>
+      <c r="B34" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34">
+        <v>121028587</v>
+      </c>
+      <c r="D34">
+        <v>205</v>
+      </c>
+      <c r="E34">
+        <v>88349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>14495397</v>
+      </c>
+      <c r="D35">
+        <v>1692</v>
+      </c>
+      <c r="E35">
+        <v>44154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36">
+        <v>111864106</v>
+      </c>
+      <c r="D36">
+        <v>499</v>
+      </c>
+      <c r="E36">
+        <v>72278</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>203</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>114477947</v>
+      </c>
+      <c r="D37">
+        <v>182</v>
+      </c>
+      <c r="E37">
+        <v>40137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>30319481</v>
+      </c>
+      <c r="D38">
+        <v>631</v>
+      </c>
+      <c r="E38">
+        <v>120490</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>205</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>44587793</v>
+      </c>
+      <c r="D39">
+        <v>1076</v>
+      </c>
+      <c r="E39">
+        <v>120490</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C40">
+        <v>115119681</v>
+      </c>
+      <c r="D40">
+        <v>133</v>
+      </c>
+      <c r="E40">
+        <v>56207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>207</v>
+      </c>
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>103345617</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>120490</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>208</v>
+      </c>
+      <c r="B42" t="s">
+        <v>179</v>
+      </c>
+      <c r="C42">
+        <v>120272911</v>
+      </c>
+      <c r="D42">
+        <v>16</v>
+      </c>
+      <c r="E42">
+        <v>441905</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>209</v>
+      </c>
+      <c r="B43" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43">
+        <v>113245047</v>
+      </c>
+      <c r="D43">
+        <v>184</v>
+      </c>
+      <c r="E43">
+        <v>144596</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>210</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>81588758</v>
+      </c>
+      <c r="D44">
+        <v>247</v>
+      </c>
+      <c r="E44">
+        <v>52190</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>35683124</v>
+      </c>
+      <c r="D45">
+        <v>1186</v>
+      </c>
+      <c r="E45">
+        <v>88349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46">
+        <v>111864107</v>
+      </c>
+      <c r="D46">
+        <v>499</v>
+      </c>
+      <c r="E46">
+        <v>72278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>211</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>44584205</v>
+      </c>
+      <c r="D47">
+        <v>200</v>
+      </c>
+      <c r="E47">
+        <v>200844</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>200</v>
+      </c>
+      <c r="B48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48">
+        <v>67865979</v>
+      </c>
+      <c r="D48">
+        <v>211</v>
+      </c>
+      <c r="E48">
+        <v>184773</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49">
+        <v>114447593</v>
+      </c>
+      <c r="D49">
+        <v>17</v>
+      </c>
+      <c r="E49">
+        <v>337445</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>114477949</v>
+      </c>
+      <c r="D50">
+        <v>182</v>
+      </c>
+      <c r="E50">
+        <v>40137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51">
+        <v>113245046</v>
+      </c>
+      <c r="D51">
+        <v>184</v>
+      </c>
+      <c r="E51">
+        <v>144596</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>116316231</v>
+      </c>
+      <c r="D52">
+        <v>27</v>
+      </c>
+      <c r="E52">
+        <v>180755</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>44587792</v>
+      </c>
+      <c r="D53">
+        <v>1076</v>
+      </c>
+      <c r="E53">
+        <v>120490</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>214</v>
+      </c>
+      <c r="B54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54">
+        <v>39769256</v>
+      </c>
+      <c r="D54">
+        <v>1542</v>
+      </c>
+      <c r="E54">
+        <v>80313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>215</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>75664919</v>
+      </c>
+      <c r="D55">
+        <v>261</v>
+      </c>
+      <c r="E55">
+        <v>80313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56">
+        <v>105616933</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>522258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>217</v>
+      </c>
+      <c r="B57" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57">
+        <v>105847516</v>
+      </c>
+      <c r="D57">
+        <v>52</v>
+      </c>
+      <c r="E57">
+        <v>68260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>219</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58">
+        <v>78278335</v>
+      </c>
+      <c r="D58">
+        <v>45</v>
+      </c>
+      <c r="E58">
+        <v>305304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>209</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59">
+        <v>113245048</v>
+      </c>
+      <c r="D59">
+        <v>184</v>
+      </c>
+      <c r="E59">
+        <v>144596</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60">
+        <v>116318210</v>
+      </c>
+      <c r="D60">
+        <v>18</v>
+      </c>
+      <c r="E60">
+        <v>180755</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>221</v>
+      </c>
+      <c r="B61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61">
         <v>101597330</v>
       </c>
-      <c r="D18">
+      <c r="D61">
         <v>75</v>
       </c>
-      <c r="E18">
+      <c r="E61">
         <v>152668</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>222</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>116347078</v>
+      </c>
+      <c r="D62">
+        <v>27</v>
+      </c>
+      <c r="E62">
+        <v>200844</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63">
+        <v>84888191</v>
+      </c>
+      <c r="D63">
+        <v>62</v>
+      </c>
+      <c r="E63">
+        <v>160667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64">
+        <v>114477948</v>
+      </c>
+      <c r="D64">
+        <v>182</v>
+      </c>
+      <c r="E64">
+        <v>40137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65">
+        <v>114176669</v>
+      </c>
+      <c r="D65">
+        <v>28</v>
+      </c>
+      <c r="E65">
+        <v>48172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66">
+        <v>84018137</v>
+      </c>
+      <c r="D66">
+        <v>6997</v>
+      </c>
+      <c r="E66">
+        <v>36119</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" t="s">
+        <v>20</v>
+      </c>
+      <c r="C67">
+        <v>30967930</v>
+      </c>
+      <c r="D67">
+        <v>867</v>
+      </c>
+      <c r="E67">
+        <v>88349</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>225</v>
+      </c>
+      <c r="B68" t="s">
+        <v>179</v>
+      </c>
+      <c r="C68">
+        <v>86123940</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <v>441905</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>226</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <v>116325940</v>
+      </c>
+      <c r="D69">
+        <v>15</v>
+      </c>
+      <c r="E69">
+        <v>200844</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>22</v>
+      </c>
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70">
+        <v>66070236</v>
+      </c>
+      <c r="D70">
+        <v>1745</v>
+      </c>
+      <c r="E70">
+        <v>160667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>227</v>
+      </c>
+      <c r="B71" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71">
+        <v>102245802</v>
+      </c>
+      <c r="D71">
+        <v>12</v>
+      </c>
+      <c r="E71">
+        <v>72278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>228</v>
+      </c>
+      <c r="B72" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72">
+        <v>73019078</v>
+      </c>
+      <c r="D72">
+        <v>76</v>
+      </c>
+      <c r="E72">
+        <v>54199</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>195</v>
+      </c>
+      <c r="B73" t="s">
+        <v>179</v>
+      </c>
+      <c r="C73">
+        <v>114447569</v>
+      </c>
+      <c r="D73">
+        <v>38</v>
+      </c>
+      <c r="E73">
+        <v>522258</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74">
+        <v>78487675</v>
+      </c>
+      <c r="D74">
+        <v>1745</v>
+      </c>
+      <c r="E74">
+        <v>160667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>229</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <v>87256267</v>
+      </c>
+      <c r="D75">
+        <v>237</v>
+      </c>
+      <c r="E75">
+        <v>76296</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>210</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76">
+        <v>81588757</v>
+      </c>
+      <c r="D76">
+        <v>247</v>
+      </c>
+      <c r="E76">
+        <v>52190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>230</v>
+      </c>
+      <c r="B77" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77">
+        <v>47716114</v>
+      </c>
+      <c r="D77">
+        <v>240</v>
+      </c>
+      <c r="E77">
+        <v>180755</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C78">
+        <v>121010316</v>
+      </c>
+      <c r="D78">
+        <v>182</v>
+      </c>
+      <c r="E78">
+        <v>80350</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>219</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79">
+        <v>81598877</v>
+      </c>
+      <c r="D79">
+        <v>45</v>
+      </c>
+      <c r="E79">
+        <v>305304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>232</v>
+      </c>
+      <c r="B80" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80">
+        <v>111889099</v>
+      </c>
+      <c r="D80">
+        <v>11</v>
+      </c>
+      <c r="E80">
+        <v>116473</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>233</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81">
+        <v>118259911</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>88349</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <v>116794089</v>
+      </c>
+      <c r="D82">
+        <v>49</v>
+      </c>
+      <c r="E82">
+        <v>140579</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>235</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83">
+        <v>120907792</v>
+      </c>
+      <c r="D83">
+        <v>83</v>
+      </c>
+      <c r="E83">
+        <v>72278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>236</v>
+      </c>
+      <c r="B84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C84">
+        <v>116317616</v>
+      </c>
+      <c r="D84">
+        <v>8</v>
+      </c>
+      <c r="E84">
+        <v>180755</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>237</v>
+      </c>
+      <c r="B85" t="s">
+        <v>179</v>
+      </c>
+      <c r="C85">
+        <v>114447582</v>
+      </c>
+      <c r="D85">
+        <v>5</v>
+      </c>
+      <c r="E85">
+        <v>562435</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86">
+        <v>113254261</v>
+      </c>
+      <c r="D86">
+        <v>26</v>
+      </c>
+      <c r="E86">
+        <v>96384</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>238</v>
+      </c>
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87">
+        <v>110520088</v>
+      </c>
+      <c r="D87">
+        <v>128</v>
+      </c>
+      <c r="E87">
+        <v>152632</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>239</v>
+      </c>
+      <c r="B88" t="s">
+        <v>191</v>
+      </c>
+      <c r="C88">
+        <v>84888187</v>
+      </c>
+      <c r="D88">
+        <v>39</v>
+      </c>
+      <c r="E88">
+        <v>80313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>240</v>
+      </c>
+      <c r="B89" t="s">
+        <v>17</v>
+      </c>
+      <c r="C89">
+        <v>121095201</v>
+      </c>
+      <c r="D89">
+        <v>64</v>
+      </c>
+      <c r="E89">
+        <v>64243</v>
       </c>
     </row>
   </sheetData>
